--- a/InputData/elec/SYTaDC/Start Year Transmission and Distribution Costs.xlsx
+++ b/InputData/elec/SYTaDC/Start Year Transmission and Distribution Costs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\CA\elec\SYTaDC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4DA09EFC-B0BD-4745-994B-F8D2A3F5095A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{83307281-4271-45A0-90CA-962C875F8121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="1110" windowWidth="12360" windowHeight="16890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -1114,7 +1114,7 @@
         <v>26</v>
       </c>
       <c r="C1" s="9">
-        <v>45258</v>
+        <v>45294</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>19</v>
